--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BTap\KT_C6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BTap\KT_C6\TestLogin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D7861F-3F95-46FD-8E2D-1D1858DEE1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA9233C-EDF0-4CEE-B476-BA08A4817003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{66116B80-6FE5-490B-9700-5851DDA37123}"/>
+    <workbookView xWindow="15930" yWindow="1725" windowWidth="11700" windowHeight="11295" xr2:uid="{66116B80-6FE5-490B-9700-5851DDA37123}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>account</t>
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>@@@</t>
-  </si>
-  <si>
-    <t>!@#$%</t>
-  </si>
-  <si>
-    <t>21806 08433</t>
   </si>
 </sst>
 </file>
@@ -438,7 +429,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,64 +462,19 @@
         <v>2180607769</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2180607770</v>
-      </c>
-      <c r="B4">
-        <v>2180607770</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2180607771</v>
-      </c>
-      <c r="B5">
-        <v>2180607771</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2180607772</v>
-      </c>
-      <c r="B6">
-        <v>2180607772</v>
-      </c>
-    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2.1806084333333301E+94</v>
-      </c>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>2.1806084333333301E+94</v>
-      </c>
+      <c r="B13" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{75A7019A-64EA-4B8A-AC1F-4D55831DB8DA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BTap\KT_C6\TestLogin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA9233C-EDF0-4CEE-B476-BA08A4817003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDF72BA-A101-4418-A694-46B138AB4E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15930" yWindow="1725" windowWidth="11700" windowHeight="11295" xr2:uid="{66116B80-6FE5-490B-9700-5851DDA37123}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66116B80-6FE5-490B-9700-5851DDA37123}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,6 +462,11 @@
         <v>2180607769</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2180607769</v>
+      </c>
+    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
